--- a/1 NHI impact/output/sfig_11_did_month.xlsx
+++ b/1 NHI impact/output/sfig_11_did_month.xlsx
@@ -553,7 +553,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -635,7 +635,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -717,7 +717,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -799,7 +799,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -881,7 +881,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -963,7 +963,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1045,7 +1045,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1127,7 +1127,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1209,7 +1209,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1291,7 +1291,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -1373,7 +1373,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -1455,7 +1455,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1537,7 +1537,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -1619,7 +1619,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -1701,7 +1701,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -1783,7 +1783,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -1865,7 +1865,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -1947,7 +1947,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -2029,7 +2029,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -2111,7 +2111,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -2193,7 +2193,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -2275,7 +2275,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -2342,7 +2342,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -2436,7 +2436,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -2535,7 +2535,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -2629,7 +2629,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -2723,7 +2723,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -2817,7 +2817,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -2911,7 +2911,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -3005,7 +3005,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -3099,7 +3099,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -3193,7 +3193,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -3287,7 +3287,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -3381,7 +3381,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -3475,7 +3475,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -3569,7 +3569,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -3663,7 +3663,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -3757,7 +3757,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -3839,7 +3839,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -3922,7 +3922,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -4005,7 +4005,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -4088,7 +4088,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -4171,7 +4171,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -4254,7 +4254,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -4337,7 +4337,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -4420,7 +4420,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -4503,7 +4503,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
@@ -4586,7 +4586,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -4669,7 +4669,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
@@ -4752,7 +4752,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -4835,7 +4835,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
@@ -4918,7 +4918,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -5001,7 +5001,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
@@ -5084,7 +5084,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
@@ -5167,7 +5167,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
@@ -5250,7 +5250,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
@@ -5333,7 +5333,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
@@ -5416,7 +5416,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -5499,7 +5499,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
@@ -5582,7 +5582,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -5650,7 +5650,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -5745,7 +5745,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -5845,7 +5845,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -5940,7 +5940,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -6035,7 +6035,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
@@ -6130,7 +6130,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
@@ -6225,7 +6225,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -6320,7 +6320,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
@@ -6415,7 +6415,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
@@ -6510,7 +6510,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
@@ -6605,7 +6605,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
@@ -6700,7 +6700,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
@@ -6795,7 +6795,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
@@ -6890,7 +6890,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
@@ -6985,7 +6985,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
@@ -7080,7 +7080,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
@@ -7163,7 +7163,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X78" t="inlineStr">
@@ -7245,7 +7245,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X79" t="inlineStr">
@@ -7327,7 +7327,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
@@ -7409,7 +7409,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
@@ -7491,7 +7491,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
@@ -7573,7 +7573,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X83" t="inlineStr">
@@ -7655,7 +7655,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X84" t="inlineStr">
@@ -7737,7 +7737,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
@@ -7819,7 +7819,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X86" t="inlineStr">
@@ -7901,7 +7901,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
@@ -7983,7 +7983,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X88" t="inlineStr">
@@ -8065,7 +8065,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
@@ -8147,7 +8147,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X90" t="inlineStr">
@@ -8229,7 +8229,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
@@ -8311,7 +8311,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
@@ -8393,7 +8393,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
@@ -8475,7 +8475,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
@@ -8557,7 +8557,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
@@ -8639,7 +8639,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X96" t="inlineStr">
@@ -8721,7 +8721,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
@@ -8803,7 +8803,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
@@ -8885,7 +8885,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X99" t="inlineStr">
@@ -8952,7 +8952,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
@@ -9046,7 +9046,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
@@ -9145,7 +9145,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
@@ -9239,7 +9239,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X103" t="inlineStr">
@@ -9333,7 +9333,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X104" t="inlineStr">
@@ -9427,7 +9427,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X105" t="inlineStr">
@@ -9521,7 +9521,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X106" t="inlineStr">
@@ -9615,7 +9615,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
@@ -9709,7 +9709,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X108" t="inlineStr">
@@ -9803,7 +9803,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X109" t="inlineStr">
@@ -9897,7 +9897,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X110" t="inlineStr">
@@ -9991,7 +9991,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
@@ -10085,7 +10085,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X112" t="inlineStr">
@@ -10179,7 +10179,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X113" t="inlineStr">
@@ -10273,7 +10273,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X114" t="inlineStr">
@@ -10367,7 +10367,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X115" t="inlineStr">
@@ -10449,7 +10449,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X116" t="inlineStr">
@@ -10531,7 +10531,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
@@ -10613,7 +10613,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X118" t="inlineStr">
@@ -10695,7 +10695,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X119" t="inlineStr">
@@ -10777,7 +10777,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X120" t="inlineStr">
@@ -10859,7 +10859,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X121" t="inlineStr">
@@ -10941,7 +10941,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
@@ -11023,7 +11023,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X123" t="inlineStr">
@@ -11105,7 +11105,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X124" t="inlineStr">
@@ -11187,7 +11187,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X125" t="inlineStr">
@@ -11269,7 +11269,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X126" t="inlineStr">
@@ -11351,7 +11351,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
@@ -11433,7 +11433,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X128" t="inlineStr">
@@ -11515,7 +11515,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X129" t="inlineStr">
@@ -11597,7 +11597,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X130" t="inlineStr">
@@ -11679,7 +11679,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X131" t="inlineStr">
@@ -11761,7 +11761,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
@@ -11843,7 +11843,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X133" t="inlineStr">
@@ -11925,7 +11925,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X134" t="inlineStr">
@@ -12007,7 +12007,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X135" t="inlineStr">
@@ -12089,7 +12089,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X136" t="inlineStr">
@@ -12171,7 +12171,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X137" t="inlineStr">
@@ -12238,7 +12238,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X138" t="inlineStr">
@@ -12332,7 +12332,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
@@ -12431,7 +12431,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X140" t="inlineStr">
@@ -12525,7 +12525,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X141" t="inlineStr">
@@ -12619,7 +12619,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
@@ -12713,7 +12713,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X143" t="inlineStr">
@@ -12807,7 +12807,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X144" t="inlineStr">
@@ -12901,7 +12901,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X145" t="inlineStr">
@@ -12995,7 +12995,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X146" t="inlineStr">
@@ -13089,7 +13089,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
@@ -13183,7 +13183,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X148" t="inlineStr">
@@ -13277,7 +13277,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X149" t="inlineStr">
@@ -13371,7 +13371,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X150" t="inlineStr">
@@ -13465,7 +13465,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X151" t="inlineStr">
@@ -13559,7 +13559,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X152" t="inlineStr">
@@ -13653,7 +13653,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X153" t="inlineStr">
@@ -13735,7 +13735,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X154" t="inlineStr">
@@ -13818,7 +13818,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X155" t="inlineStr">
@@ -13901,7 +13901,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X156" t="inlineStr">
@@ -13984,7 +13984,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
@@ -14067,7 +14067,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X158" t="inlineStr">
@@ -14150,7 +14150,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X159" t="inlineStr">
@@ -14233,7 +14233,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X160" t="inlineStr">
@@ -14316,7 +14316,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X161" t="inlineStr">
@@ -14399,7 +14399,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
@@ -14482,7 +14482,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X163" t="inlineStr">
@@ -14565,7 +14565,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X164" t="inlineStr">
@@ -14648,7 +14648,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X165" t="inlineStr">
@@ -14731,7 +14731,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X166" t="inlineStr">
@@ -14814,7 +14814,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X167" t="inlineStr">
@@ -14897,7 +14897,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X168" t="inlineStr">
@@ -14980,7 +14980,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X169" t="inlineStr">
@@ -15063,7 +15063,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X170" t="inlineStr">
@@ -15146,7 +15146,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X171" t="inlineStr">
@@ -15229,7 +15229,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X172" t="inlineStr">
@@ -15312,7 +15312,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X173" t="inlineStr">
@@ -15395,7 +15395,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X174" t="inlineStr">
@@ -15478,7 +15478,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X175" t="inlineStr">
@@ -15546,7 +15546,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X176" t="inlineStr">
@@ -15641,7 +15641,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W177" t="inlineStr">
@@ -15741,7 +15741,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X178" t="inlineStr">
@@ -15836,7 +15836,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X179" t="inlineStr">
@@ -15931,7 +15931,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X180" t="inlineStr">
@@ -16026,7 +16026,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X181" t="inlineStr">
@@ -16121,7 +16121,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X182" t="inlineStr">
@@ -16216,7 +16216,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X183" t="inlineStr">
@@ -16311,7 +16311,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X184" t="inlineStr">
@@ -16406,7 +16406,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X185" t="inlineStr">
@@ -16501,7 +16501,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X186" t="inlineStr">
@@ -16596,7 +16596,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X187" t="inlineStr">
@@ -16691,7 +16691,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X188" t="inlineStr">
@@ -16786,7 +16786,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X189" t="inlineStr">
@@ -16881,7 +16881,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X190" t="inlineStr">
@@ -16976,7 +16976,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X191" t="inlineStr">
@@ -17059,7 +17059,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X192" t="inlineStr">
@@ -17141,7 +17141,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X193" t="inlineStr">
@@ -17223,7 +17223,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X194" t="inlineStr">
@@ -17305,7 +17305,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X195" t="inlineStr">
@@ -17387,7 +17387,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X196" t="inlineStr">
@@ -17469,7 +17469,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X197" t="inlineStr">
@@ -17551,7 +17551,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X198" t="inlineStr">
@@ -17633,7 +17633,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X199" t="inlineStr">
@@ -17715,7 +17715,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X200" t="inlineStr">
@@ -17797,7 +17797,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X201" t="inlineStr">
@@ -17879,7 +17879,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X202" t="inlineStr">
@@ -17961,7 +17961,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X203" t="inlineStr">
@@ -18043,7 +18043,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X204" t="inlineStr">
@@ -18125,7 +18125,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X205" t="inlineStr">
@@ -18207,7 +18207,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X206" t="inlineStr">
@@ -18289,7 +18289,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X207" t="inlineStr">
@@ -18371,7 +18371,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X208" t="inlineStr">
@@ -18453,7 +18453,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X209" t="inlineStr">
@@ -18535,7 +18535,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X210" t="inlineStr">
@@ -18617,7 +18617,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X211" t="inlineStr">
@@ -18699,7 +18699,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X212" t="inlineStr">
@@ -18781,7 +18781,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X213" t="inlineStr">
@@ -18848,7 +18848,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X214" t="inlineStr">
@@ -18942,7 +18942,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W215" t="inlineStr">
@@ -19041,7 +19041,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X216" t="inlineStr">
@@ -19135,7 +19135,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X217" t="inlineStr">
@@ -19229,7 +19229,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X218" t="inlineStr">
@@ -19323,7 +19323,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X219" t="inlineStr">
@@ -19417,7 +19417,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X220" t="inlineStr">
@@ -19511,7 +19511,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X221" t="inlineStr">
@@ -19605,7 +19605,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X222" t="inlineStr">
@@ -19699,7 +19699,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X223" t="inlineStr">
@@ -19793,7 +19793,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X224" t="inlineStr">
@@ -19887,7 +19887,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X225" t="inlineStr">
@@ -19981,7 +19981,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X226" t="inlineStr">
@@ -20075,7 +20075,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X227" t="inlineStr">
@@ -20169,7 +20169,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X228" t="inlineStr">
@@ -20263,7 +20263,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X229" t="inlineStr">
@@ -59780,7 +59780,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X686" t="inlineStr">
@@ -59828,7 +59828,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X687" t="inlineStr">
@@ -59876,7 +59876,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X688" t="inlineStr">
@@ -59924,7 +59924,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X689" t="inlineStr">
@@ -59972,7 +59972,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X690" t="inlineStr">
@@ -60020,7 +60020,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X691" t="inlineStr">
@@ -60068,7 +60068,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X692" t="inlineStr">
@@ -60151,7 +60151,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X693" t="inlineStr">
@@ -60234,7 +60234,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X694" t="inlineStr">
@@ -60317,7 +60317,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X695" t="inlineStr">
@@ -60400,7 +60400,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X696" t="inlineStr">
@@ -60483,7 +60483,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X697" t="inlineStr">
@@ -60566,7 +60566,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X698" t="inlineStr">
@@ -60649,7 +60649,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X699" t="inlineStr">
@@ -60732,7 +60732,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X700" t="inlineStr">
@@ -60815,7 +60815,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X701" t="inlineStr">
@@ -60898,7 +60898,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X702" t="inlineStr">
@@ -60981,7 +60981,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X703" t="inlineStr">
@@ -61064,7 +61064,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X704" t="inlineStr">
@@ -61147,7 +61147,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X705" t="inlineStr">
@@ -61230,7 +61230,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X706" t="inlineStr">
@@ -61313,7 +61313,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X707" t="inlineStr">
@@ -61381,7 +61381,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X708" t="inlineStr">
@@ -61476,7 +61476,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W709" t="inlineStr">
@@ -61576,7 +61576,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X710" t="inlineStr">
@@ -61671,7 +61671,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X711" t="inlineStr">
@@ -61766,7 +61766,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X712" t="inlineStr">
@@ -61861,7 +61861,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X713" t="inlineStr">
@@ -61956,7 +61956,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X714" t="inlineStr">
@@ -62051,7 +62051,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X715" t="inlineStr">
@@ -62146,7 +62146,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X716" t="inlineStr">
@@ -62194,7 +62194,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X717" t="inlineStr">
@@ -62242,7 +62242,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X718" t="inlineStr">
@@ -62290,7 +62290,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X719" t="inlineStr">
@@ -62338,7 +62338,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X720" t="inlineStr">
@@ -62386,7 +62386,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X721" t="inlineStr">
@@ -62434,7 +62434,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X722" t="inlineStr">
@@ -62482,7 +62482,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X723" t="inlineStr">
@@ -62530,7 +62530,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X724" t="inlineStr">
@@ -62578,7 +62578,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X725" t="inlineStr">
@@ -62626,7 +62626,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X726" t="inlineStr">
@@ -62674,7 +62674,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X727" t="inlineStr">
@@ -62722,7 +62722,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X728" t="inlineStr">
@@ -62770,7 +62770,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X729" t="inlineStr">
@@ -62818,7 +62818,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X730" t="inlineStr">
@@ -62901,7 +62901,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X731" t="inlineStr">
@@ -62984,7 +62984,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X732" t="inlineStr">
@@ -63067,7 +63067,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X733" t="inlineStr">
@@ -63150,7 +63150,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X734" t="inlineStr">
@@ -63233,7 +63233,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X735" t="inlineStr">
@@ -63316,7 +63316,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X736" t="inlineStr">
@@ -63399,7 +63399,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X737" t="inlineStr">
@@ -63482,7 +63482,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X738" t="inlineStr">
@@ -63565,7 +63565,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X739" t="inlineStr">
@@ -63648,7 +63648,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X740" t="inlineStr">
@@ -63731,7 +63731,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X741" t="inlineStr">
@@ -63814,7 +63814,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X742" t="inlineStr">
@@ -63897,7 +63897,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X743" t="inlineStr">
@@ -63980,7 +63980,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X744" t="inlineStr">
@@ -64063,7 +64063,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X745" t="inlineStr">
@@ -64131,7 +64131,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X746" t="inlineStr">
@@ -64226,7 +64226,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="W747" t="inlineStr">
@@ -64326,7 +64326,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X748" t="inlineStr">
@@ -64421,7 +64421,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X749" t="inlineStr">
@@ -64516,7 +64516,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X750" t="inlineStr">
@@ -64611,7 +64611,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X751" t="inlineStr">
@@ -64706,7 +64706,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X752" t="inlineStr">
@@ -64801,7 +64801,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X753" t="inlineStr">
@@ -64896,7 +64896,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X754" t="inlineStr">
@@ -64944,7 +64944,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X755" t="inlineStr">
@@ -64992,7 +64992,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X756" t="inlineStr">
@@ -65040,7 +65040,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X757" t="inlineStr">
@@ -65088,7 +65088,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X758" t="inlineStr">
@@ -65136,7 +65136,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X759" t="inlineStr">
@@ -65184,7 +65184,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X760" t="inlineStr">
@@ -65232,7 +65232,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X761" t="inlineStr">

--- a/1 NHI impact/output/sfig_11_did_month.xlsx
+++ b/1 NHI impact/output/sfig_11_did_month.xlsx
@@ -59787,7 +59787,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y686">
@@ -59835,7 +59835,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y687">
@@ -59883,7 +59883,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y688">
@@ -59931,7 +59931,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y689">
@@ -59979,7 +59979,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y690">
@@ -60027,7 +60027,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y691">
@@ -60075,7 +60075,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y692">
@@ -60158,7 +60158,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y693">
@@ -60241,7 +60241,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y694">
@@ -60324,7 +60324,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y695">
@@ -60407,7 +60407,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y696">
@@ -60490,7 +60490,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y697">
@@ -60573,7 +60573,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y698">
@@ -60656,7 +60656,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y699">
@@ -60739,7 +60739,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y700">
@@ -60822,7 +60822,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y701">
@@ -60905,7 +60905,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y702">
@@ -60988,7 +60988,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y703">
@@ -61071,7 +61071,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y704">
@@ -61154,7 +61154,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y705">
@@ -61237,7 +61237,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y706">
@@ -61320,7 +61320,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y707">
@@ -61388,7 +61388,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y708">
@@ -61488,7 +61488,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y709">
@@ -61583,7 +61583,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y710">
@@ -61678,7 +61678,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y711">
@@ -61773,7 +61773,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y712">
@@ -61868,7 +61868,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y713">
@@ -61963,7 +61963,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y714">
@@ -62058,7 +62058,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y715">
@@ -62153,7 +62153,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y716">
@@ -62201,7 +62201,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y717">
@@ -62249,7 +62249,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y718">
@@ -62297,7 +62297,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y719">
@@ -62345,7 +62345,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y720">
@@ -62393,7 +62393,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y721">
@@ -62441,7 +62441,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y722">
@@ -62489,7 +62489,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y723">
@@ -62537,7 +62537,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y724">
@@ -62585,7 +62585,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y725">
@@ -62633,7 +62633,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y726">
@@ -62681,7 +62681,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y727">
@@ -62729,7 +62729,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y728">
@@ -62777,7 +62777,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y729">
@@ -62825,7 +62825,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y730">
@@ -62908,7 +62908,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y731">
@@ -62991,7 +62991,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y732">
@@ -63074,7 +63074,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y733">
@@ -63157,7 +63157,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y734">
@@ -63240,7 +63240,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y735">
@@ -63323,7 +63323,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y736">
@@ -63406,7 +63406,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y737">
@@ -63489,7 +63489,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y738">
@@ -63572,7 +63572,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y739">
@@ -63655,7 +63655,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y740">
@@ -63738,7 +63738,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y741">
@@ -63821,7 +63821,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y742">
@@ -63904,7 +63904,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y743">
@@ -63987,7 +63987,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y744">
@@ -64070,7 +64070,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y745">
@@ -64138,7 +64138,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y746">
@@ -64238,7 +64238,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y747">
@@ -64333,7 +64333,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y748">
@@ -64428,7 +64428,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y749">
@@ -64523,7 +64523,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y750">
@@ -64618,7 +64618,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y751">
@@ -64713,7 +64713,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y752">
@@ -64808,7 +64808,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y753">
@@ -64903,7 +64903,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y754">
@@ -64951,7 +64951,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y755">
@@ -64999,7 +64999,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y756">
@@ -65047,7 +65047,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y757">
@@ -65095,7 +65095,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y758">
@@ -65143,7 +65143,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y759">
@@ -65191,7 +65191,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y760">
@@ -65239,7 +65239,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y761">
@@ -65287,7 +65287,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y762">
@@ -65335,7 +65335,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y763">
@@ -65383,7 +65383,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y764">
@@ -65431,7 +65431,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y765">
@@ -65479,7 +65479,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y766">
@@ -65527,7 +65527,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y767">
@@ -65575,7 +65575,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y768">
@@ -65658,7 +65658,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y769">
@@ -65741,7 +65741,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y770">
@@ -65824,7 +65824,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y771">
@@ -65907,7 +65907,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y772">
@@ -65990,7 +65990,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y773">
@@ -66073,7 +66073,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y774">
@@ -66156,7 +66156,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y775">
@@ -66239,7 +66239,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y776">
@@ -66322,7 +66322,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y777">
@@ -66405,7 +66405,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y778">
@@ -66488,7 +66488,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y779">
@@ -66571,7 +66571,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y780">
@@ -66654,7 +66654,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y781">
@@ -66737,7 +66737,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y782">
@@ -66820,7 +66820,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y783">
@@ -66888,7 +66888,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y784">
@@ -66988,7 +66988,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y785">
@@ -67083,7 +67083,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y786">
@@ -67178,7 +67178,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y787">
@@ -67273,7 +67273,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y788">
@@ -67368,7 +67368,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y789">
@@ -67463,7 +67463,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y790">
@@ -67558,7 +67558,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y791">
@@ -67653,7 +67653,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y792">
@@ -67701,7 +67701,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y793">
@@ -67749,7 +67749,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y794">
@@ -67797,7 +67797,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y795">
@@ -67845,7 +67845,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y796">
@@ -67893,7 +67893,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y797">
@@ -67941,7 +67941,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y798">
@@ -67989,7 +67989,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y799">
@@ -68037,7 +68037,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y800">
@@ -68085,7 +68085,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y801">
@@ -68133,7 +68133,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y802">
@@ -68181,7 +68181,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y803">
@@ -68229,7 +68229,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y804">
@@ -68277,7 +68277,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y805">
@@ -68325,7 +68325,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y806">
@@ -68408,7 +68408,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y807">
@@ -68491,7 +68491,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y808">
@@ -68574,7 +68574,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y809">
@@ -68657,7 +68657,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y810">
@@ -68740,7 +68740,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y811">
@@ -68823,7 +68823,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y812">
@@ -68906,7 +68906,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y813">
@@ -68989,7 +68989,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y814">
@@ -69072,7 +69072,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y815">
@@ -69155,7 +69155,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y816">
@@ -69238,7 +69238,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y817">
@@ -69321,7 +69321,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y818">
@@ -69404,7 +69404,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y819">
@@ -69487,7 +69487,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y820">
@@ -69570,7 +69570,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y821">
@@ -69638,7 +69638,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y822">
@@ -69738,7 +69738,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y823">
@@ -69833,7 +69833,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y824">
@@ -69928,7 +69928,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y825">
@@ -70023,7 +70023,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y826">
@@ -70118,7 +70118,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y827">
@@ -70213,7 +70213,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y828">
@@ -70308,7 +70308,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y829">
@@ -70403,7 +70403,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y830">
@@ -70451,7 +70451,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y831">
@@ -70499,7 +70499,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y832">
@@ -70547,7 +70547,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y833">
@@ -70595,7 +70595,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y834">
@@ -70643,7 +70643,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y835">
@@ -70691,7 +70691,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y836">
@@ -70739,7 +70739,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y837">
@@ -70787,7 +70787,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y838">
@@ -70835,7 +70835,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y839">
@@ -70883,7 +70883,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y840">
@@ -70931,7 +70931,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y841">
@@ -70979,7 +70979,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y842">
@@ -71027,7 +71027,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y843">
@@ -71075,7 +71075,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y844">
@@ -71158,7 +71158,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y845">
@@ -71241,7 +71241,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y846">
@@ -71324,7 +71324,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y847">
@@ -71407,7 +71407,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y848">
@@ -71490,7 +71490,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y849">
@@ -71573,7 +71573,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y850">
@@ -71656,7 +71656,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y851">
@@ -71739,7 +71739,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y852">
@@ -71822,7 +71822,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y853">
@@ -71905,7 +71905,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y854">
@@ -71988,7 +71988,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y855">
@@ -72071,7 +72071,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y856">
@@ -72154,7 +72154,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y857">
@@ -72237,7 +72237,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y858">
@@ -72320,7 +72320,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y859">
@@ -72388,7 +72388,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y860">
@@ -72488,7 +72488,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y861">
@@ -72583,7 +72583,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y862">
@@ -72678,7 +72678,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y863">
@@ -72773,7 +72773,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y864">
@@ -72868,7 +72868,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y865">
@@ -72963,7 +72963,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y866">
@@ -73058,7 +73058,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y867">
@@ -73153,7 +73153,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y868">
@@ -73201,7 +73201,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y869">
@@ -73249,7 +73249,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y870">
@@ -73297,7 +73297,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y871">
@@ -73345,7 +73345,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y872">
@@ -73393,7 +73393,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y873">
@@ -73441,7 +73441,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y874">
@@ -73489,7 +73489,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y875">
@@ -73536,7 +73536,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y876">
@@ -73583,7 +73583,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y877">
@@ -73630,7 +73630,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y878">
@@ -73677,7 +73677,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y879">
@@ -73724,7 +73724,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y880">
@@ -73771,7 +73771,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y881">
@@ -73818,7 +73818,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y882">
@@ -73900,7 +73900,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y883">
@@ -73982,7 +73982,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y884">
@@ -74064,7 +74064,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y885">
@@ -74146,7 +74146,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y886">
@@ -74228,7 +74228,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y887">
@@ -74310,7 +74310,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y888">
@@ -74392,7 +74392,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y889">
@@ -74474,7 +74474,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y890">
@@ -74556,7 +74556,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y891">
@@ -74638,7 +74638,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y892">
@@ -74720,7 +74720,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y893">
@@ -74802,7 +74802,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y894">
@@ -74884,7 +74884,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y895">
@@ -74966,7 +74966,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y896">
@@ -75048,7 +75048,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y897">
@@ -75115,7 +75115,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y898">
@@ -75214,7 +75214,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y899">
@@ -75308,7 +75308,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y900">
@@ -75402,7 +75402,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y901">
@@ -75496,7 +75496,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y902">
@@ -75590,7 +75590,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y903">
@@ -75684,7 +75684,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y904">
@@ -75778,7 +75778,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y905">
@@ -75872,7 +75872,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y906">
@@ -75919,7 +75919,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y907">
@@ -75966,7 +75966,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y908">
@@ -76013,7 +76013,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y909">
@@ -76060,7 +76060,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y910">
@@ -76107,7 +76107,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y911">
@@ -76154,7 +76154,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y912">
@@ -76201,7 +76201,7 @@
         <is>
           <t>Balanced
 NHI exposure
-(e=0-2)</t>
+(e=0-7)</t>
         </is>
       </c>
       <c r="Y913">
